--- a/trend_results/Rivers/MangatoroatMangaheiRoad_6572270dca.xlsx
+++ b/trend_results/Rivers/MangatoroatMangaheiRoad_6572270dca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.528766206292791</v>
+        <v>0.471233793707209</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.968423668376756</v>
+        <v>0.031576331623244</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.872252730591767</v>
+        <v>0.127747269408233</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.999663659652387</v>
+        <v>0.0003363403476129</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2916,14 +2916,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.231216363225238</v>
+        <v>0.150658944794623</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0492957746478873</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0.577464788732394</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>0.404</v>
+        <v>0.605</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0422827376500117</v>
+        <v>-0.008321941216678</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.138330643160968</v>
+        <v>-0.0321362539467867</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0170809396740677</v>
+        <v>0.009976782299918</v>
       </c>
       <c r="N28" t="n">
-        <v>-10.466024170795</v>
+        <v>-1.37552747383108</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2993,7 +2993,11 @@
           <t>Mana_1c</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3003,14 +3007,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3018,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.40324797025367</v>
+        <v>1.98954173025179e-07</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0.808139534883721</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>109</v>
+        <v>10.405</v>
       </c>
       <c r="K29" t="n">
-        <v>-1.09983761615357</v>
+        <v>-0.0718368847539007</v>
       </c>
       <c r="L29" t="n">
-        <v>-9.479777264939299</v>
+        <v>-0.0917259468468606</v>
       </c>
       <c r="M29" t="n">
-        <v>4.222786576538</v>
+        <v>-0.0474215356385956</v>
       </c>
       <c r="N29" t="n">
-        <v>-1.00902533592071</v>
+        <v>-0.6904073498693</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3051,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3080,7 +3084,11 @@
           <t>Mana_1c</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3090,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.5</v>
+        <v>0.0666064248525591</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.108571428571429</v>
       </c>
       <c r="H30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>5.26</v>
+        <v>0.014</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0384123628899296</v>
+        <v>3.84231011992426e-05</v>
       </c>
       <c r="L30" t="n">
-        <v>-1.09124005758647</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.665938248283251</v>
+        <v>0.000332347588717</v>
       </c>
       <c r="N30" t="n">
-        <v>0.730273058743909</v>
+        <v>0.274450722851733</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3138,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3167,7 +3175,11 @@
           <t>Mana_1c</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3177,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3192,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.141565435331173</v>
+        <v>0.829445851905911</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.6914285714285709</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.471</v>
+        <v>210</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0109650621118012</v>
+        <v>-2.77220541229822</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0247357632385745</v>
+        <v>-8.37972263424812</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0041104732687907</v>
+        <v>1.54890697919202</v>
       </c>
       <c r="N31" t="n">
-        <v>-2.32803866492595</v>
+        <v>-1.32009781538011</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3254,7 +3266,11 @@
           <t>Mana_1c</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3264,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.088983712984032</v>
+        <v>0.988710493549986</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.641176470588235</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9</v>
+        <v>0.494117647058824</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J32" t="n">
-        <v>113</v>
+        <v>0.0058755638442847</v>
       </c>
       <c r="K32" t="n">
-        <v>-1.36414565826331</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-2.27706671041747</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.109468120500444</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-1.20720854713567</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3312,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3341,7 +3357,11 @@
           <t>Mana_1c</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3351,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.429013828493761</v>
+        <v>0.359408276421108</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>5.39</v>
+        <v>0.003</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0507291666666666</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.301428593579371</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.183119894383804</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.9411719233147799</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3428,7 +3448,1075 @@
           <t>Mana_1c</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.999960592541562</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0127388535031847</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.929936305732484</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.012654802955665</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0173610808987065</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.0073986357792538</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-2.41965639687668</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.403638032884105</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.502857142857143</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.0009435546370446</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.008646882331546601</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0072368807321458</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.0116058380940304</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>As likely as not increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.999995928863017</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0114285714285714</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0131818713952912</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0177440049118452</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.0086907760133968</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-2.43657511927748</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.99999999951466</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.634285714285714</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0212209501025291</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0267265597739063</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.0165528240218365</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-2.68619621551001</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.251199130135759</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.451428571428571</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0001665717626916</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0002503641631295</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0005017170329669999</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.6169324544135369</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.996270907175575</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.925714285714286</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.09165884338752581</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.20134734345663</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.0374487354750513</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-2.7775407087129</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0422827376500117</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.138330643160968</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0170809396740677</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-10.466024170795</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>109</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-1.09983761615357</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-9.479777264939299</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4.222786576538</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-1.00902533592071</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0384123628899296</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-1.09124005758647</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.665938248283251</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.730273058743909</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.141565435331173</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0109650621118012</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0247357632385745</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0041104732687907</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-2.32803866492595</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.088983712984032</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>113</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-1.36414565826331</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-2.27706671041747</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.109468120500444</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-1.20720854713567</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.429013828493761</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.0507291666666666</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.301428593579371</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.183119894383804</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.9411719233147799</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangatoroatMangaheiRoad_6572270dca.xlsx
+++ b/trend_results/Rivers/MangatoroatMangaheiRoad_6572270dca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,35 +569,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.999799670947318</v>
+        <v>0.11063585155291</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.08</v>
       </c>
       <c r="H2" t="n">
-        <v>0.673076923076923</v>
+        <v>0.62</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="K2" t="n">
-        <v>0.37037499918724</v>
+        <v>-0.06689560439560439</v>
       </c>
       <c r="L2" t="n">
-        <v>0.196787757196124</v>
+        <v>-0.27789903610978</v>
       </c>
       <c r="M2" t="n">
-        <v>0.543526785714286</v>
+        <v>0.0155725816913684</v>
       </c>
       <c r="N2" t="n">
-        <v>46.296874898405</v>
+        <v>-7.87007110536522</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.471233793707209</v>
+        <v>0.693284313522417</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.966101694915254</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -679,16 +679,16 @@
         <v>10.05</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0033447802197801</v>
+        <v>0.0458096411947925</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0824099454300941</v>
+        <v>-0.0479708702132787</v>
       </c>
       <c r="M3" t="n">
-        <v>0.091397047251514</v>
+        <v>0.118163359788417</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.033281395221693</v>
+        <v>0.455817325321319</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.227400484503121</v>
+        <v>0.0120686077099803</v>
       </c>
       <c r="G4" t="n">
         <v>0.0517241379310345</v>
       </c>
       <c r="H4" t="n">
-        <v>0.46551724137931</v>
+        <v>0.448275862068966</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0145</v>
+        <v>0.015</v>
       </c>
       <c r="K4" t="n">
-        <v>0.000332347588717</v>
+        <v>0.001583444521243</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0009907533247345</v>
+        <v>0.0003419470234205</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0017483694179491</v>
+        <v>0.0023413461538461</v>
       </c>
       <c r="N4" t="n">
-        <v>2.29205233597942</v>
+        <v>10.5562968082873</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -838,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.925502984072296</v>
+        <v>0.5</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.689655172413793</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>166.5</v>
       </c>
       <c r="K5" t="n">
-        <v>-23.6586069210293</v>
+        <v>-1.24829118250171</v>
       </c>
       <c r="L5" t="n">
-        <v>-46.8218474825108</v>
+        <v>-28.8149266989291</v>
       </c>
       <c r="M5" t="n">
-        <v>0.78878908190416</v>
+        <v>17.2683228210773</v>
       </c>
       <c r="N5" t="n">
-        <v>-14.2093735261437</v>
+        <v>-0.74972443393496</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.7592064048934249</v>
+        <v>0.6688204290609741</v>
       </c>
       <c r="G6" t="n">
-        <v>0.648148148148148</v>
+        <v>0.622641509433962</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5</v>
+        <v>0.471698113207547</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005291470525599</v>
+        <v>0.005</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0002563711263507</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.98251772956323</v>
+        <v>0.998759976352723</v>
       </c>
       <c r="G7" t="n">
-        <v>0.172413793103448</v>
+        <v>0.241379310344828</v>
       </c>
       <c r="H7" t="n">
         <v>0.120689655172414</v>
@@ -1043,16 +1043,16 @@
         <v>0.003</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0002915003990422</v>
+        <v>-0.0004224985540775</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0005706085608854999</v>
+        <v>-0.0007051158301158</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-9.716679968076621</v>
+        <v>-14.0832851359167</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.746491225748484</v>
+        <v>0.0806521132417552</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1131,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.49</v>
+        <v>0.5305</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0193748692406942</v>
+        <v>0.0351201923076923</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0368489861905148</v>
+        <v>-0.0053301214904983</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0103256912423047</v>
+        <v>0.0536178200828469</v>
       </c>
       <c r="N8" t="n">
-        <v>-3.95405494708045</v>
+        <v>6.62020590154426</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.031576331623244</v>
+        <v>0.0422846926909</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.728813559322034</v>
+        <v>0.724137931034483</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8.08</v>
+        <v>8.055</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.037810559006211</v>
+        <v>-0.0368319327731095</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0651388816351698</v>
+        <v>-0.06957142857142851</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0045094482585692</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.467952462948157</v>
+        <v>-0.457255527909492</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.812478188220694</v>
+        <v>0.0916606131112542</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.913793103448276</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.507</v>
+        <v>0.55</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0157196711981085</v>
+        <v>0.035676235388815</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.032006509804594</v>
+        <v>-0.0048844971634896</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0132966728149481</v>
+        <v>0.0574126562154484</v>
       </c>
       <c r="N10" t="n">
-        <v>-3.10052686353225</v>
+        <v>6.48658825251182</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,46 +1373,46 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.989315444064788</v>
+        <v>0.0266449173134373</v>
       </c>
       <c r="G11" t="n">
-        <v>0.206896551724138</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.413793103448276</v>
+        <v>0.724137931034483</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>0.74</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.7905844155844159</v>
+        <v>0.0422672934376944</v>
       </c>
       <c r="L11" t="n">
-        <v>-2.04830841450691</v>
+        <v>0.004692954989463</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.0752449553338654</v>
       </c>
       <c r="N11" t="n">
-        <v>-26.3528138528139</v>
+        <v>5.71179641049924</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.955890983468057</v>
+        <v>0.0005718248837235001</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.775862068965517</v>
+        <v>0.689655172413793</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.027</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0303981496444732</v>
+        <v>0.0039946232339089</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0596872079397301</v>
+        <v>0.0020044678465557</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.004496578808053</v>
+        <v>0.0054729273152214</v>
       </c>
       <c r="N12" t="n">
-        <v>-4.40552893398162</v>
+        <v>14.7949008663294</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.470455488613916</v>
+        <v>0.105056163764983</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.706896551724138</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.025</v>
+        <v>2.82</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0002508585164835</v>
+        <v>0.208071636930485</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0031114473064093</v>
+        <v>-0.0800750508295307</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0020712796981224</v>
+        <v>1.81296974161746</v>
       </c>
       <c r="N13" t="n">
-        <v>1.00343406593407</v>
+        <v>7.37842684150657</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.983737909367336</v>
+        <v>0.99814172415825</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H14" t="n">
-        <v>0.982758620689655</v>
+        <v>0.644444444444444</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.525</v>
+        <v>0.4</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.409540019228458</v>
+        <v>0.0513231850117096</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.925818146872969</v>
+        <v>0.021105930196231</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.0684681280291965</v>
+        <v>0.114351494544499</v>
       </c>
       <c r="N14" t="n">
-        <v>-16.2194067021171</v>
+        <v>12.8307962529274</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9896887690816421</v>
+        <v>0.317097408664741</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0543478260869565</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.673913043478261</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4775</v>
+        <v>10.055</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0643696707856459</v>
+        <v>-0.0100343406593406</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0195203126201893</v>
+        <v>-0.0424645949061741</v>
       </c>
       <c r="M15" t="n">
-        <v>0.127147191781968</v>
+        <v>0.0150087715543908</v>
       </c>
       <c r="N15" t="n">
-        <v>13.4805593268368</v>
+        <v>-0.0997945366418759</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.127747269408233</v>
+        <v>0.0454563596181652</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="H16" t="n">
-        <v>0.88135593220339</v>
+        <v>0.254237288135593</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>10.095</v>
+        <v>0.0155</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0255375892067701</v>
+        <v>0.0002499575869038</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0599985176985714</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0075965314951154</v>
+        <v>0.0006988303846636</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.252972651874889</v>
+        <v>1.61262959292787</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0050654835373748</v>
+        <v>0.664054164077839</v>
       </c>
       <c r="G17" t="n">
-        <v>0.110169491525424</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.245762711864407</v>
+        <v>0.601694915254237</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.014</v>
+        <v>210</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0003332320566728</v>
+        <v>-1.87244749035412</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-9.940918688883871</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0007279131641897</v>
+        <v>6.77818791444456</v>
       </c>
       <c r="N17" t="n">
-        <v>2.38022897623464</v>
+        <v>-0.89164166207339</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2021,35 +2021,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.770719409650346</v>
+        <v>0.0461122215301829</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.734513274336283</v>
       </c>
       <c r="H18" t="n">
-        <v>0.61864406779661</v>
+        <v>0.460176991150442</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J18" t="n">
-        <v>205</v>
+        <v>0.0054162157268274</v>
       </c>
       <c r="K18" t="n">
-        <v>-3.73083424209378</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-12.9739242277645</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>4.15434485896269</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-1.81991914248477</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,46 +2101,46 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.99999845452396</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.186440677966102</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.110169491525424</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope based on two censored values</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0.174235213988026</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.754385964912281</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.43859649122807</v>
-      </c>
-      <c r="I19" t="n">
-        <v>25</v>
-      </c>
       <c r="J19" t="n">
-        <v>0.0051667253243705</v>
+        <v>0.003</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.0003598522167487</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0004831349206349</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-0.0002258812615955</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-11.9950738916256</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.999982568634779</v>
+        <v>0.653988354249197</v>
       </c>
       <c r="G20" t="n">
-        <v>0.144067796610169</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H20" t="n">
-        <v>0.110169491525424</v>
+        <v>0.957627118644068</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.004</v>
+        <v>0.514</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0003124465355004</v>
+        <v>-0.0019315467452395</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0004403032791651</v>
+        <v>-0.0096257108853553</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.0001740757272149</v>
+        <v>0.0050330476419022</v>
       </c>
       <c r="N20" t="n">
-        <v>-7.81116338751069</v>
+        <v>-0.375787304521303</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.933866371093503</v>
+        <v>5.71767762459485e-05</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.966101694915254</v>
+        <v>0.533898305084746</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.499</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0068910038847532</v>
+        <v>-0.0243023483365949</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0133254610399718</v>
+        <v>-0.0347857142857144</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0008011241668493</v>
+        <v>-0.0145750199521146</v>
       </c>
       <c r="N21" t="n">
-        <v>-1.38096270235535</v>
+        <v>-0.298921873758855</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Mana_1c</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.0003363403476129</v>
+        <v>0.6443425592681929</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H22" t="n">
-        <v>0.529411764705882</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>8.140000000000001</v>
+        <v>0.54075</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0212973760932945</v>
+        <v>-0.0017077261480742</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0313355772690054</v>
+        <v>-0.009991669389688001</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0109465534465539</v>
+        <v>0.0071798017132765</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.26163852694465</v>
+        <v>-0.315806962195881</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Mana_1c</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.930749798361558</v>
+        <v>0.692569110465467</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8389830508474579</v>
+        <v>0.6949152542372879</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.515</v>
+        <v>0.7765</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0070669600786737</v>
+        <v>-0.0029887657455326</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0133970492181484</v>
+        <v>-0.0132939035486806</v>
       </c>
       <c r="M23" t="n">
-        <v>3.83723014833516e-05</v>
+        <v>0.0056806740854314</v>
       </c>
       <c r="N23" t="n">
-        <v>-1.3722252579949</v>
+        <v>-0.384902220931444</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.996475433479048</v>
+        <v>0.0620809447141457</v>
       </c>
       <c r="G24" t="n">
-        <v>0.127118644067797</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.347457627118644</v>
+        <v>0.5</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>0.028</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.285075004979925</v>
+        <v>0.000668956043956</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.501717032967033</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.07125249951618449</v>
+        <v>0.0015051510989011</v>
       </c>
       <c r="N24" t="n">
-        <v>-5.7015000995985</v>
+        <v>2.38912872841444</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9849658963368</v>
+        <v>0.6343121150946111</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.76271186440678</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7565</v>
+        <v>3.91</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0116199219232779</v>
+        <v>-0.0235050136662046</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.019945412640554</v>
+        <v>-0.157679934030873</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.0032941662299353</v>
+        <v>0.127119610552938</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.53601082925022</v>
+        <v>-0.6011512446599639</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.297559914047156</v>
+        <v>0.027702568931654</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0486111111111111</v>
       </c>
       <c r="H26" t="n">
-        <v>0.491525423728814</v>
+        <v>0.590277777777778</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0265</v>
+        <v>0.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001829297769152</v>
+        <v>-0.0149556414922657</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0004231090091377</v>
+        <v>-0.0342833732359655</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0007966194111232</v>
+        <v>-0.0006991338780901</v>
       </c>
       <c r="N26" t="n">
-        <v>0.690301044963314</v>
+        <v>-2.99112829845314</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.998577627419817</v>
+        <v>6.66608042299011e-06</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.940677966101695</v>
+        <v>0.8171428571428569</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>3.145</v>
+        <v>10.22</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.184355003549083</v>
+        <v>-0.0549248120300753</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.31379427757898</v>
+        <v>-0.077729294386449</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.0794067311738577</v>
+        <v>-0.0340844620858538</v>
       </c>
       <c r="N27" t="n">
-        <v>-5.86184430998673</v>
+        <v>-0.537424775245356</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.150658944794623</v>
+        <v>0.0328493829486875</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0492957746478873</v>
+        <v>0.0965909090909091</v>
       </c>
       <c r="H28" t="n">
-        <v>0.577464788732394</v>
+        <v>0.193181818181818</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.605</v>
+        <v>0.0155</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.008321941216678</v>
+        <v>0.0001665717626916</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0321362539467867</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.009976782299918</v>
+        <v>0.0003334094020994</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.37552747383108</v>
+        <v>1.07465653349455</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.98954173025179e-07</v>
+        <v>0.6548257133290351</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.808139534883721</v>
+        <v>0.676136363636364</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>10.405</v>
+        <v>210</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0718368847539007</v>
+        <v>-0.996733520994605</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0917259468468606</v>
+        <v>-6.59059252857465</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0474215356385956</v>
+        <v>3.56307973184758</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.6904073498693</v>
+        <v>-0.474635009997431</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0666064248525591</v>
+        <v>0.9965496044443219</v>
       </c>
       <c r="G30" t="n">
-        <v>0.108571428571429</v>
+        <v>0.619883040935672</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2</v>
+        <v>0.508771929824561</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="J30" t="n">
-        <v>0.014</v>
+        <v>0.0058755638442847</v>
       </c>
       <c r="K30" t="n">
-        <v>3.84231011992426e-05</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>-7.86400895051794e-05</v>
       </c>
       <c r="M30" t="n">
-        <v>0.000332347588717</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0.274450722851733</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.829445851905911</v>
+        <v>0.74168497114984</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.283132530120482</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6914285714285709</v>
+        <v>0.0843373493975904</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>210</v>
+        <v>0.003</v>
       </c>
       <c r="K31" t="n">
-        <v>-2.77220541229822</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-8.37972263424812</v>
+        <v>-4.81518400351638e-05</v>
       </c>
       <c r="M31" t="n">
-        <v>1.54890697919202</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.32009781538011</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.988710493549986</v>
+        <v>0.996967964499815</v>
       </c>
       <c r="G32" t="n">
-        <v>0.641176470588235</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="H32" t="n">
-        <v>0.494117647058824</v>
+        <v>0.933734939759036</v>
       </c>
       <c r="I32" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0058755638442847</v>
+        <v>0.5315</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-0.0088176331508213</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-0.0135173554239756</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-0.0033491779724075</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>-1.65900905942075</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3382,35 +3382,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.359408276421108</v>
+        <v>0.059223304676197</v>
       </c>
       <c r="G33" t="n">
-        <v>0.272727272727273</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.488636363636364</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.003</v>
+        <v>8.125</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-0.0068331567320806</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.014210935863216</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>-0.084100390548685</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Mana_1c</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.999960592541562</v>
+        <v>0.999522226580964</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0127388535031847</v>
+        <v>0.0113636363636364</v>
       </c>
       <c r="H34" t="n">
-        <v>0.929936305732484</v>
+        <v>0.875</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.523</v>
+        <v>0.555</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.012654802955665</v>
+        <v>-0.0098641506489845</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0173610808987065</v>
+        <v>-0.0149737845706876</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.0073986357792538</v>
+        <v>-0.0056679598356914</v>
       </c>
       <c r="N34" t="n">
-        <v>-2.41965639687668</v>
+        <v>-1.77732444125848</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,14 +3549,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3568,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.403638032884105</v>
+        <v>0.999998341560475</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.502857142857143</v>
+        <v>0.630681818181818</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>8.130000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0009435546370446</v>
+        <v>-0.0179239367502726</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.008646882331546601</v>
+        <v>-0.0232429829632623</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0072368807321458</v>
+        <v>-0.0109507212743615</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.0116058380940304</v>
+        <v>-2.24049209378408</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Mana_1c</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.999995928863017</v>
+        <v>0.157419233520743</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0114285714285714</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.84</v>
+        <v>0.4375</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.541</v>
+        <v>0.028</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0131818713952912</v>
+        <v>0.0002478805977367</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0177440049118452</v>
+        <v>-0.0001874752760518</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.0086907760133968</v>
+        <v>0.0006903651914374</v>
       </c>
       <c r="N36" t="n">
-        <v>-2.43657511927748</v>
+        <v>0.885287849059733</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.99999999951466</v>
+        <v>0.927781260345973</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.634285714285714</v>
+        <v>0.931818181818182</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.79</v>
+        <v>4.075</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0212209501025291</v>
+        <v>-0.0693540439850976</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0267265597739063</v>
+        <v>-0.160237138098238</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.0165528240218365</v>
+        <v>0.0042363267648939</v>
       </c>
       <c r="N37" t="n">
-        <v>-2.68619621551001</v>
+        <v>-1.70193972969565</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3822,46 +3822,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.251199130135759</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.451428571428571</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.027</v>
+        <v>0.404</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0001665717626916</v>
+        <v>0.0049038496693261</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0002503641631295</v>
+        <v>-0.0688136901205532</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0005017170329669999</v>
+        <v>0.0425575005279966</v>
       </c>
       <c r="N38" t="n">
-        <v>0.6169324544135369</v>
+        <v>1.21382417557578</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3899,11 +3899,7 @@
           <t>Mana_1c</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,46 +3909,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>1</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.996270907175575</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.925714285714286</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>3.3</v>
+        <v>106.15</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.09165884338752581</v>
+        <v>0.141659368560498</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.20134734345663</v>
+        <v>-9.479777264939299</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.0374487354750513</v>
+        <v>2.69397916895722</v>
       </c>
       <c r="N39" t="n">
-        <v>-2.7775407087129</v>
+        <v>0.133452066472442</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3957,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3990,11 +3986,7 @@
           <t>Mana_1c</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4004,7 +3996,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,7 +4011,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.231216363225238</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -4031,19 +4023,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.404</v>
+        <v>5.26</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0422827376500117</v>
+        <v>0.546106844420792</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.138330643160968</v>
+        <v>-0.643742282398426</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0170809396740677</v>
+        <v>1.10832871093209</v>
       </c>
       <c r="N40" t="n">
-        <v>-10.466024170795</v>
+        <v>10.3822593996348</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4044,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4091,11 +4083,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -4106,7 +4098,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.40324797025367</v>
+        <v>0.237137175383665</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -4118,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>109</v>
+        <v>0.4595</v>
       </c>
       <c r="K41" t="n">
-        <v>-1.09983761615357</v>
+        <v>-0.007955387848681701</v>
       </c>
       <c r="L41" t="n">
-        <v>-9.479777264939299</v>
+        <v>-0.0232158422028878</v>
       </c>
       <c r="M41" t="n">
-        <v>4.222786576538</v>
+        <v>0.0054906824405876</v>
       </c>
       <c r="N41" t="n">
-        <v>-1.00902533592071</v>
+        <v>-1.73131400406566</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4139,7 +4131,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4178,11 +4170,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -4193,31 +4185,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.5</v>
+        <v>0.063424647007573</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>5.26</v>
+        <v>110</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0384123628899296</v>
+        <v>-1.36414565826331</v>
       </c>
       <c r="L42" t="n">
-        <v>-1.09124005758647</v>
+        <v>-2.77911669189976</v>
       </c>
       <c r="M42" t="n">
-        <v>0.665938248283251</v>
+        <v>-0.111879934929235</v>
       </c>
       <c r="N42" t="n">
-        <v>0.730273058743909</v>
+        <v>-1.240132416603</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4226,7 +4218,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4265,7 +4257,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4280,7 +4272,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.141565435331173</v>
+        <v>0.8144533152386511</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4292,19 +4284,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.471</v>
+        <v>5.39</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0109650621118012</v>
+        <v>0.139713114754098</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0247357632385745</v>
+        <v>-0.187752231637316</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0041104732687907</v>
+        <v>0.266894363166118</v>
       </c>
       <c r="N43" t="n">
-        <v>-2.32803866492595</v>
+        <v>2.59208005109645</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4313,7 +4305,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4343,180 +4335,6 @@
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Mangatoro at Mangahei Road</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>10</v>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>0.088983712984032</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>113</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-1.36414565826331</v>
-      </c>
-      <c r="L44" t="n">
-        <v>-2.27706671041747</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.109468120500444</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-1.20720854713567</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>Very unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>1871306</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5540203</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>Upper Manawatu</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>Mana_1c</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Mangatoro at Mangahei Road</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>10</v>
-      </c>
-      <c r="D45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>0.429013828493761</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-0.0507291666666666</v>
-      </c>
-      <c r="L45" t="n">
-        <v>-0.301428593579371</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.183119894383804</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-0.9411719233147799</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>1871306</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5540203</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>Upper Manawatu</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>Mana_1c</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangatoroatMangaheiRoad_6572270dca.xlsx
+++ b/trend_results/Rivers/MangatoroatMangaheiRoad_6572270dca.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="66">
   <si>
     <t>site name</t>
   </si>
@@ -142,43 +142,46 @@
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
+    <t>Exceptionally unlikely increasing</t>
   </si>
   <si>
     <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely increasing</t>
   </si>
   <si>
     <t>Very likely improving</t>
@@ -566,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,37 +663,37 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.11063585155291</v>
+        <v>0.0013664578102059</v>
       </c>
       <c r="G2">
-        <v>0.08</v>
+        <v>0.0930232558139535</v>
       </c>
       <c r="H2">
-        <v>0.62</v>
+        <v>0.720930232558139</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="K2">
-        <v>-0.06689560439560439</v>
+        <v>-0.249034090909091</v>
       </c>
       <c r="L2">
-        <v>-0.27789903610978</v>
+        <v>-0.474354008735955</v>
       </c>
       <c r="M2">
-        <v>0.0155725816913684</v>
+        <v>-0.08919370491462859</v>
       </c>
       <c r="N2">
-        <v>-7.87007110536522</v>
+        <v>-35.5762987012987</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q2">
         <v>1871306</v>
@@ -699,19 +702,19 @@
         <v>5540203</v>
       </c>
       <c r="S2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -737,31 +740,31 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.949152542372881</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.05</v>
+        <v>10.09</v>
       </c>
       <c r="K3">
-        <v>0.0458096411947925</v>
+        <v>0.0275464256138599</v>
       </c>
       <c r="L3">
-        <v>-0.0479708702132787</v>
+        <v>-0.064995781590445</v>
       </c>
       <c r="M3">
-        <v>0.118163359788417</v>
+        <v>0.0903090659340658</v>
       </c>
       <c r="N3">
-        <v>0.455817325321319</v>
+        <v>0.273007191415856</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3">
         <v>1871306</v>
@@ -770,19 +773,19 @@
         <v>5540203</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -802,37 +805,37 @@
         <v>39</v>
       </c>
       <c r="F4">
-        <v>0.0120686077099803</v>
+        <v>0.382479927714759</v>
       </c>
       <c r="G4">
-        <v>0.0517241379310345</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.448275862068966</v>
+        <v>0.5</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.015</v>
+        <v>0.0145</v>
       </c>
       <c r="K4">
-        <v>0.001583444521243</v>
+        <v>0.0002484693877551</v>
       </c>
       <c r="L4">
-        <v>0.0003419470234205</v>
+        <v>-0.0010034555643008</v>
       </c>
       <c r="M4">
-        <v>0.0023413461538461</v>
+        <v>0.0010034664178452</v>
       </c>
       <c r="N4">
-        <v>10.5562968082873</v>
+        <v>1.71358198451795</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q4">
         <v>1871306</v>
@@ -841,19 +844,19 @@
         <v>5540203</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -873,34 +876,34 @@
         <v>39</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.353127981052426</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.741379310344828</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>166.5</v>
+        <v>155.2</v>
       </c>
       <c r="K5">
-        <v>-1.24829118250171</v>
+        <v>4.11407967032967</v>
       </c>
       <c r="L5">
-        <v>-28.8149266989291</v>
+        <v>-18.1406918068816</v>
       </c>
       <c r="M5">
-        <v>17.2683228210773</v>
+        <v>29.7446941932384</v>
       </c>
       <c r="N5">
-        <v>-0.74972443393496</v>
+        <v>2.65082452985159</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P5" t="s">
         <v>46</v>
@@ -912,19 +915,19 @@
         <v>5540203</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -944,16 +947,16 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.6688204290609741</v>
+        <v>0.7208192281699209</v>
       </c>
       <c r="G6">
         <v>0.622641509433962</v>
       </c>
       <c r="H6">
-        <v>0.471698113207547</v>
+        <v>0.39622641509434</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0.005</v>
@@ -971,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q6">
         <v>1871306</v>
@@ -983,19 +986,19 @@
         <v>5540203</v>
       </c>
       <c r="S6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1015,37 +1018,37 @@
         <v>41</v>
       </c>
       <c r="F7">
-        <v>0.998759976352723</v>
+        <v>0.999321587417674</v>
       </c>
       <c r="G7">
-        <v>0.241379310344828</v>
+        <v>0.344827586206897</v>
       </c>
       <c r="H7">
-        <v>0.120689655172414</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="K7">
-        <v>-0.0004224985540775</v>
+        <v>-0.0003865079365079</v>
       </c>
       <c r="L7">
-        <v>-0.0007051158301158</v>
+        <v>-0.0006604882459312</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-14.0832851359167</v>
+        <v>-19.3253968253968</v>
       </c>
       <c r="O7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7">
         <v>1871306</v>
@@ -1054,19 +1057,19 @@
         <v>5540203</v>
       </c>
       <c r="S7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1086,37 +1089,37 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>0.0806521132417552</v>
+        <v>0.0162620906326638</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.948275862068966</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5305</v>
+        <v>0.49</v>
       </c>
       <c r="K8">
-        <v>0.0351201923076923</v>
+        <v>0.0328835054058844</v>
       </c>
       <c r="L8">
-        <v>-0.0053301214904983</v>
+        <v>0.0091691221516865</v>
       </c>
       <c r="M8">
-        <v>0.0536178200828469</v>
+        <v>0.0516139324382247</v>
       </c>
       <c r="N8">
-        <v>6.62020590154426</v>
+        <v>6.71091947058865</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8">
         <v>1871306</v>
@@ -1125,19 +1128,19 @@
         <v>5540203</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1157,37 +1160,37 @@
         <v>39</v>
       </c>
       <c r="F9">
-        <v>0.0422846926909</v>
+        <v>0.017523859635881</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.724137931034483</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.055</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="K9">
-        <v>-0.0368319327731095</v>
+        <v>-0.037270408163265</v>
       </c>
       <c r="L9">
-        <v>-0.06957142857142851</v>
+        <v>-0.0702403846153844</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>-0.008821324392946899</v>
       </c>
       <c r="N9">
-        <v>-0.457255527909492</v>
+        <v>-0.462986436810745</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q9">
         <v>1871306</v>
@@ -1196,16 +1199,16 @@
         <v>5540203</v>
       </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1225,37 +1228,37 @@
         <v>39</v>
       </c>
       <c r="F10">
-        <v>0.0916606131112542</v>
+        <v>0.0059794917844757</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.948275862068966</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="K10">
-        <v>0.035676235388815</v>
+        <v>0.0341937424784995</v>
       </c>
       <c r="L10">
-        <v>-0.0048844971634896</v>
+        <v>0.0118731888193385</v>
       </c>
       <c r="M10">
-        <v>0.0574126562154484</v>
+        <v>0.0547501640828579</v>
       </c>
       <c r="N10">
-        <v>6.48658825251182</v>
+        <v>6.70465538794108</v>
       </c>
       <c r="O10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q10">
         <v>1871306</v>
@@ -1264,19 +1267,19 @@
         <v>5540203</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1296,37 +1299,37 @@
         <v>39</v>
       </c>
       <c r="F11">
-        <v>0.0266449173134373</v>
+        <v>0.0012532315262528</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.724137931034483</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.74</v>
+        <v>0.705</v>
       </c>
       <c r="K11">
-        <v>0.0422672934376944</v>
+        <v>0.0506635827407886</v>
       </c>
       <c r="L11">
-        <v>0.004692954989463</v>
+        <v>0.0300805613683932</v>
       </c>
       <c r="M11">
-        <v>0.0752449553338654</v>
+        <v>0.0845880177925145</v>
       </c>
       <c r="N11">
-        <v>5.71179641049924</v>
+        <v>7.18632379301966</v>
       </c>
       <c r="O11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q11">
         <v>1871306</v>
@@ -1335,19 +1338,19 @@
         <v>5540203</v>
       </c>
       <c r="S11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1367,7 +1370,7 @@
         <v>39</v>
       </c>
       <c r="F12">
-        <v>0.0005718248837235001</v>
+        <v>0.0449824875182887</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1382,22 +1385,22 @@
         <v>0.027</v>
       </c>
       <c r="K12">
-        <v>0.0039946232339089</v>
+        <v>0.0040137362637362</v>
       </c>
       <c r="L12">
-        <v>0.0020044678465557</v>
+        <v>0.0003432152360804</v>
       </c>
       <c r="M12">
-        <v>0.0054729273152214</v>
+        <v>0.0063634918914917</v>
       </c>
       <c r="N12">
-        <v>14.7949008663294</v>
+        <v>14.8656898656899</v>
       </c>
       <c r="O12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q12">
         <v>1871306</v>
@@ -1406,19 +1409,19 @@
         <v>5540203</v>
       </c>
       <c r="S12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1438,7 +1441,7 @@
         <v>39</v>
       </c>
       <c r="F13">
-        <v>0.105056163764983</v>
+        <v>0.0004542256017474</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1453,22 +1456,22 @@
         <v>2.82</v>
       </c>
       <c r="K13">
-        <v>0.208071636930485</v>
+        <v>0.43738576007326</v>
       </c>
       <c r="L13">
-        <v>-0.0800750508295307</v>
+        <v>0.201779662845549</v>
       </c>
       <c r="M13">
-        <v>1.81296974161746</v>
+        <v>2.74771109606889</v>
       </c>
       <c r="N13">
-        <v>7.37842684150657</v>
+        <v>15.5101333359312</v>
       </c>
       <c r="O13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q13">
         <v>1871306</v>
@@ -1477,19 +1480,19 @@
         <v>5540203</v>
       </c>
       <c r="S13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1509,37 +1512,37 @@
         <v>39</v>
       </c>
       <c r="F14">
-        <v>0.99814172415825</v>
+        <v>0.964434428110289</v>
       </c>
       <c r="G14">
-        <v>0.0555555555555556</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="H14">
-        <v>0.644444444444444</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="K14">
-        <v>0.0513231850117096</v>
+        <v>0.0296822062997894</v>
       </c>
       <c r="L14">
-        <v>0.021105930196231</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.114351494544499</v>
+        <v>0.0816361879695636</v>
       </c>
       <c r="N14">
-        <v>12.8307962529274</v>
+        <v>7.61082212815113</v>
       </c>
       <c r="O14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q14">
         <v>1871306</v>
@@ -1548,19 +1551,19 @@
         <v>5540203</v>
       </c>
       <c r="S14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1580,37 +1583,37 @@
         <v>39</v>
       </c>
       <c r="F15">
-        <v>0.317097408664741</v>
+        <v>0.30065070154298</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.898305084745763</v>
+        <v>0.9327731092436971</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.055</v>
+        <v>10.06</v>
       </c>
       <c r="K15">
-        <v>-0.0100343406593406</v>
+        <v>-0.008738038277512</v>
       </c>
       <c r="L15">
-        <v>-0.0424645949061741</v>
+        <v>-0.0398520460691926</v>
       </c>
       <c r="M15">
-        <v>0.0150087715543908</v>
+        <v>0.0218664125801371</v>
       </c>
       <c r="N15">
-        <v>-0.0997945366418759</v>
+        <v>-0.08685922741065601</v>
       </c>
       <c r="O15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q15">
         <v>1871306</v>
@@ -1619,19 +1622,19 @@
         <v>5540203</v>
       </c>
       <c r="S15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1651,37 +1654,37 @@
         <v>39</v>
       </c>
       <c r="F16">
-        <v>0.0454563596181652</v>
+        <v>0.123501220602646</v>
       </c>
       <c r="G16">
-        <v>0.0847457627118644</v>
+        <v>0.09322033898305079</v>
       </c>
       <c r="H16">
-        <v>0.254237288135593</v>
+        <v>0.26271186440678</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.0155</v>
+        <v>0.0145</v>
       </c>
       <c r="K16">
-        <v>0.0002499575869038</v>
+        <v>0.0001429549902152</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0006988303846636</v>
+        <v>0.0005017170329669999</v>
       </c>
       <c r="N16">
-        <v>1.61262959292787</v>
+        <v>0.985896484243202</v>
       </c>
       <c r="O16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Q16">
         <v>1871306</v>
@@ -1690,19 +1693,19 @@
         <v>5540203</v>
       </c>
       <c r="S16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1722,37 +1725,37 @@
         <v>39</v>
       </c>
       <c r="F17">
-        <v>0.664054164077839</v>
+        <v>0.832616095970121</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.601694915254237</v>
+        <v>0.623931623931624</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>210</v>
+        <v>189.2</v>
       </c>
       <c r="K17">
-        <v>-1.87244749035412</v>
+        <v>-2.68164513936098</v>
       </c>
       <c r="L17">
-        <v>-9.940918688883871</v>
+        <v>-10.973630519178</v>
       </c>
       <c r="M17">
-        <v>6.77818791444456</v>
+        <v>3.97908855335159</v>
       </c>
       <c r="N17">
-        <v>-0.89164166207339</v>
+        <v>-1.41736001023308</v>
       </c>
       <c r="O17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q17">
         <v>1871306</v>
@@ -1761,19 +1764,19 @@
         <v>5540203</v>
       </c>
       <c r="S17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1793,19 +1796,19 @@
         <v>40</v>
       </c>
       <c r="F18">
-        <v>0.0461122215301829</v>
+        <v>0.0342386345562191</v>
       </c>
       <c r="G18">
-        <v>0.734513274336283</v>
+        <v>0.723214285714286</v>
       </c>
       <c r="H18">
-        <v>0.460176991150442</v>
+        <v>0.482142857142857</v>
       </c>
       <c r="I18">
         <v>25</v>
       </c>
       <c r="J18">
-        <v>0.0054162157268274</v>
+        <v>0.0054598896616387</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1820,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q18">
         <v>1871306</v>
@@ -1832,19 +1835,19 @@
         <v>5540203</v>
       </c>
       <c r="S18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1864,13 +1867,13 @@
         <v>41</v>
       </c>
       <c r="F19">
-        <v>0.99999845452396</v>
+        <v>0.9999996278052991</v>
       </c>
       <c r="G19">
-        <v>0.186440677966102</v>
+        <v>0.23728813559322</v>
       </c>
       <c r="H19">
-        <v>0.110169491525424</v>
+        <v>0.101694915254237</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1879,22 +1882,22 @@
         <v>0.003</v>
       </c>
       <c r="K19">
-        <v>-0.0003598522167487</v>
+        <v>-0.0003366359447004</v>
       </c>
       <c r="L19">
-        <v>-0.0004831349206349</v>
+        <v>-0.0004613381329179</v>
       </c>
       <c r="M19">
-        <v>-0.0002258812615955</v>
+        <v>-0.0002147266313932</v>
       </c>
       <c r="N19">
-        <v>-11.9950738916256</v>
+        <v>-11.221198156682</v>
       </c>
       <c r="O19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q19">
         <v>1871306</v>
@@ -1903,19 +1906,19 @@
         <v>5540203</v>
       </c>
       <c r="S19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1935,34 +1938,34 @@
         <v>39</v>
       </c>
       <c r="F20">
-        <v>0.653988354249197</v>
+        <v>0.355753691105555</v>
       </c>
       <c r="G20">
         <v>0.0169491525423729</v>
       </c>
       <c r="H20">
-        <v>0.957627118644068</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.514</v>
+        <v>0.499</v>
       </c>
       <c r="K20">
-        <v>-0.0019315467452395</v>
+        <v>0.0013408837713167</v>
       </c>
       <c r="L20">
-        <v>-0.0096257108853553</v>
+        <v>-0.0056375775264745</v>
       </c>
       <c r="M20">
-        <v>0.0050330476419022</v>
+        <v>0.0096858653623827</v>
       </c>
       <c r="N20">
-        <v>-0.375787304521303</v>
+        <v>0.268714182628606</v>
       </c>
       <c r="O20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P20" t="s">
         <v>46</v>
@@ -1974,19 +1977,19 @@
         <v>5540203</v>
       </c>
       <c r="S20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2006,37 +2009,37 @@
         <v>39</v>
       </c>
       <c r="F21">
-        <v>5.71767762459485E-05</v>
+        <v>1.70347252104186E-06</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.533898305084746</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.130000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="K21">
-        <v>-0.0243023483365949</v>
+        <v>-0.0299487564851025</v>
       </c>
       <c r="L21">
-        <v>-0.0347857142857144</v>
+        <v>-0.0403963599917639</v>
       </c>
       <c r="M21">
-        <v>-0.0145750199521146</v>
+        <v>-0.0193246545538094</v>
       </c>
       <c r="N21">
-        <v>-0.298921873758855</v>
+        <v>-0.369281830889057</v>
       </c>
       <c r="O21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q21">
         <v>1871306</v>
@@ -2045,16 +2048,16 @@
         <v>5540203</v>
       </c>
       <c r="S21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2074,7 +2077,7 @@
         <v>39</v>
       </c>
       <c r="F22">
-        <v>0.6443425592681929</v>
+        <v>0.317097408664741</v>
       </c>
       <c r="G22">
         <v>0.0169491525423729</v>
@@ -2086,25 +2089,25 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.54075</v>
+        <v>0.515</v>
       </c>
       <c r="K22">
-        <v>-0.0017077261480742</v>
+        <v>0.0014319683136412</v>
       </c>
       <c r="L22">
-        <v>-0.009991669389688001</v>
+        <v>-0.005045053634019</v>
       </c>
       <c r="M22">
-        <v>0.0071798017132765</v>
+        <v>0.0111795737301135</v>
       </c>
       <c r="N22">
-        <v>-0.315806962195881</v>
+        <v>0.278052099736165</v>
       </c>
       <c r="O22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q22">
         <v>1871306</v>
@@ -2113,19 +2116,19 @@
         <v>5540203</v>
       </c>
       <c r="S22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2145,34 +2148,34 @@
         <v>39</v>
       </c>
       <c r="F23">
-        <v>0.692569110465467</v>
+        <v>0.236995194137731</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.6949152542372879</v>
+        <v>0.61864406779661</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7765</v>
+        <v>0.77</v>
       </c>
       <c r="K23">
-        <v>-0.0029887657455326</v>
+        <v>0.00353948378425</v>
       </c>
       <c r="L23">
-        <v>-0.0132939035486806</v>
+        <v>-0.0033342354446981</v>
       </c>
       <c r="M23">
-        <v>0.0056806740854314</v>
+        <v>0.0119571474694743</v>
       </c>
       <c r="N23">
-        <v>-0.384902220931444</v>
+        <v>0.459673218733774</v>
       </c>
       <c r="O23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P23" t="s">
         <v>53</v>
@@ -2184,19 +2187,19 @@
         <v>5540203</v>
       </c>
       <c r="S23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2216,7 +2219,7 @@
         <v>39</v>
       </c>
       <c r="F24">
-        <v>0.0620809447141457</v>
+        <v>0.0966925092865738</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2228,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.028</v>
+        <v>0.0275</v>
       </c>
       <c r="K24">
         <v>0.000668956043956</v>
@@ -2237,16 +2240,16 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.0015051510989011</v>
+        <v>0.0016219131176737</v>
       </c>
       <c r="N24">
-        <v>2.38912872841444</v>
+        <v>2.43256743256743</v>
       </c>
       <c r="O24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P24" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Q24">
         <v>1871306</v>
@@ -2255,19 +2258,19 @@
         <v>5540203</v>
       </c>
       <c r="S24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2287,37 +2290,37 @@
         <v>39</v>
       </c>
       <c r="F25">
-        <v>0.6343121150946111</v>
+        <v>0.289599497087188</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.949152542372881</v>
+        <v>0.957627118644068</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.91</v>
+        <v>3.23</v>
       </c>
       <c r="K25">
-        <v>-0.0235050136662046</v>
+        <v>0.0399453178400547</v>
       </c>
       <c r="L25">
-        <v>-0.157679934030873</v>
+        <v>-0.0585390290520372</v>
       </c>
       <c r="M25">
-        <v>0.127119610552938</v>
+        <v>0.200734128180744</v>
       </c>
       <c r="N25">
-        <v>-0.6011512446599639</v>
+        <v>1.23669714675092</v>
       </c>
       <c r="O25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P25" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q25">
         <v>1871306</v>
@@ -2326,19 +2329,19 @@
         <v>5540203</v>
       </c>
       <c r="S25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2358,37 +2361,37 @@
         <v>39</v>
       </c>
       <c r="F26">
-        <v>0.027702568931654</v>
+        <v>0.04874557923047</v>
       </c>
       <c r="G26">
-        <v>0.0486111111111111</v>
+        <v>0.0510948905109489</v>
       </c>
       <c r="H26">
-        <v>0.590277777777778</v>
+        <v>0.605839416058394</v>
       </c>
       <c r="I26">
         <v>3</v>
       </c>
       <c r="J26">
-        <v>0.5</v>
+        <v>0.495</v>
       </c>
       <c r="K26">
-        <v>-0.0149556414922657</v>
+        <v>-0.009938775510203999</v>
       </c>
       <c r="L26">
-        <v>-0.0342833732359655</v>
+        <v>-0.0300702387526674</v>
       </c>
       <c r="M26">
-        <v>-0.0006991338780901</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>-2.99112829845314</v>
+        <v>-2.00783343640487</v>
       </c>
       <c r="O26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P26" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q26">
         <v>1871306</v>
@@ -2397,19 +2400,19 @@
         <v>5540203</v>
       </c>
       <c r="S26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2429,37 +2432,37 @@
         <v>39</v>
       </c>
       <c r="F27">
-        <v>6.66608042299011E-06</v>
+        <v>0.0015821992474039</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.8171428571428569</v>
+        <v>0.829545454545455</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10.22</v>
+        <v>10.115</v>
       </c>
       <c r="K27">
-        <v>-0.0549248120300753</v>
+        <v>-0.0339211838328382</v>
       </c>
       <c r="L27">
-        <v>-0.077729294386449</v>
+        <v>-0.0545917653110427</v>
       </c>
       <c r="M27">
-        <v>-0.0340844620858538</v>
+        <v>-0.0155943230253035</v>
       </c>
       <c r="N27">
-        <v>-0.537424775245356</v>
+        <v>-0.335355252919804</v>
       </c>
       <c r="O27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q27">
         <v>1871306</v>
@@ -2468,19 +2471,19 @@
         <v>5540203</v>
       </c>
       <c r="S27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2497,40 +2500,40 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F28">
-        <v>0.0328493829486875</v>
+        <v>0.124006778457288</v>
       </c>
       <c r="G28">
         <v>0.0965909090909091</v>
       </c>
       <c r="H28">
-        <v>0.193181818181818</v>
+        <v>0.1875</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0.0155</v>
+        <v>0.0145</v>
       </c>
       <c r="K28">
-        <v>0.0001665717626916</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.0003334094020994</v>
+        <v>0.0002484693877551</v>
       </c>
       <c r="N28">
-        <v>1.07465653349455</v>
+        <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Q28">
         <v>1871306</v>
@@ -2539,19 +2542,19 @@
         <v>5540203</v>
       </c>
       <c r="S28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2571,13 +2574,13 @@
         <v>39</v>
       </c>
       <c r="F29">
-        <v>0.6548257133290351</v>
+        <v>0.836936349749532</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0.676136363636364</v>
+        <v>0.702857142857143</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2586,22 +2589,22 @@
         <v>210</v>
       </c>
       <c r="K29">
-        <v>-0.996733520994605</v>
+        <v>-2.74737536471155</v>
       </c>
       <c r="L29">
-        <v>-6.59059252857465</v>
+        <v>-8.33523505248745</v>
       </c>
       <c r="M29">
-        <v>3.56307973184758</v>
+        <v>1.60541087170244</v>
       </c>
       <c r="N29">
-        <v>-0.474635009997431</v>
+        <v>-1.30827398319597</v>
       </c>
       <c r="O29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q29">
         <v>1871306</v>
@@ -2610,19 +2613,19 @@
         <v>5540203</v>
       </c>
       <c r="S29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2639,16 +2642,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F30">
-        <v>0.9965496044443219</v>
+        <v>0.996183049674506</v>
       </c>
       <c r="G30">
-        <v>0.619883040935672</v>
+        <v>0.629411764705882</v>
       </c>
       <c r="H30">
-        <v>0.508771929824561</v>
+        <v>0.494117647058824</v>
       </c>
       <c r="I30">
         <v>26</v>
@@ -2660,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>-7.86400895051794E-05</v>
+        <v>-9.63690574364155E-05</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2669,10 +2672,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q30">
         <v>1871306</v>
@@ -2681,19 +2684,19 @@
         <v>5540203</v>
       </c>
       <c r="S30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2713,13 +2716,13 @@
         <v>41</v>
       </c>
       <c r="F31">
-        <v>0.74168497114984</v>
+        <v>0.947067038115043</v>
       </c>
       <c r="G31">
-        <v>0.283132530120482</v>
+        <v>0.295454545454545</v>
       </c>
       <c r="H31">
-        <v>0.0843373493975904</v>
+        <v>0.0738636363636364</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2731,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>-4.81518400351638E-05</v>
+        <v>-0.0001065289756223</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2740,10 +2743,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q31">
         <v>1871306</v>
@@ -2752,19 +2755,19 @@
         <v>5540203</v>
       </c>
       <c r="S31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2784,37 +2787,37 @@
         <v>39</v>
       </c>
       <c r="F32">
-        <v>0.996967964499815</v>
+        <v>0.998920165175186</v>
       </c>
       <c r="G32">
-        <v>0.0120481927710843</v>
+        <v>0.0113636363636364</v>
       </c>
       <c r="H32">
-        <v>0.933734939759036</v>
+        <v>0.926136363636364</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.5315</v>
+        <v>0.5255</v>
       </c>
       <c r="K32">
-        <v>-0.0088176331508213</v>
+        <v>-0.0084547133319907</v>
       </c>
       <c r="L32">
-        <v>-0.0135173554239756</v>
+        <v>-0.0122134639250254</v>
       </c>
       <c r="M32">
-        <v>-0.0033491779724075</v>
+        <v>-0.0037874438702555</v>
       </c>
       <c r="N32">
-        <v>-1.65900905942075</v>
+        <v>-1.60888931151109</v>
       </c>
       <c r="O32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q32">
         <v>1871306</v>
@@ -2823,19 +2826,19 @@
         <v>5540203</v>
       </c>
       <c r="S32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2855,34 +2858,34 @@
         <v>39</v>
       </c>
       <c r="F33">
-        <v>0.059223304676197</v>
+        <v>2.77508760110345E-05</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.488636363636364</v>
+        <v>0.445714285714286</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>8.125</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="K33">
-        <v>-0.0068331567320806</v>
+        <v>-0.0144468357375523</v>
       </c>
       <c r="L33">
-        <v>-0.014210935863216</v>
+        <v>-0.020422917589586</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>-0.008571055717878201</v>
       </c>
       <c r="N33">
-        <v>-0.084100390548685</v>
+        <v>-0.177697856550459</v>
       </c>
       <c r="O33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P33" t="s">
         <v>54</v>
@@ -2894,16 +2897,16 @@
         <v>5540203</v>
       </c>
       <c r="S33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2923,7 +2926,7 @@
         <v>39</v>
       </c>
       <c r="F34">
-        <v>0.999522226580964</v>
+        <v>0.999199788412898</v>
       </c>
       <c r="G34">
         <v>0.0113636363636364</v>
@@ -2935,25 +2938,25 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.555</v>
+        <v>0.54175</v>
       </c>
       <c r="K34">
-        <v>-0.0098641506489845</v>
+        <v>-0.0085091542536217</v>
       </c>
       <c r="L34">
-        <v>-0.0149737845706876</v>
+        <v>-0.0121818415585233</v>
       </c>
       <c r="M34">
-        <v>-0.0056679598356914</v>
+        <v>-0.004092108994116</v>
       </c>
       <c r="N34">
-        <v>-1.77732444125848</v>
+        <v>-1.57067914233904</v>
       </c>
       <c r="O34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q34">
         <v>1871306</v>
@@ -2962,19 +2965,19 @@
         <v>5540203</v>
       </c>
       <c r="S34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2994,37 +2997,37 @@
         <v>39</v>
       </c>
       <c r="F35">
-        <v>0.999998341560475</v>
+        <v>0.999981097759702</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.630681818181818</v>
+        <v>0.613636363636364</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.8</v>
+        <v>0.795</v>
       </c>
       <c r="K35">
-        <v>-0.0179239367502726</v>
+        <v>-0.0152038100317603</v>
       </c>
       <c r="L35">
-        <v>-0.0232429829632623</v>
+        <v>-0.0200265421512667</v>
       </c>
       <c r="M35">
-        <v>-0.0109507212743615</v>
+        <v>-0.008676746369816199</v>
       </c>
       <c r="N35">
-        <v>-2.24049209378408</v>
+        <v>-1.91242893481261</v>
       </c>
       <c r="O35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q35">
         <v>1871306</v>
@@ -3033,19 +3036,19 @@
         <v>5540203</v>
       </c>
       <c r="S35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3062,16 +3065,16 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F36">
-        <v>0.157419233520743</v>
+        <v>0.377975780344266</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.4375</v>
+        <v>0.448863636363636</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3080,22 +3083,22 @@
         <v>0.028</v>
       </c>
       <c r="K36">
-        <v>0.0002478805977367</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>-0.0001874752760518</v>
+        <v>-0.0003314412442024</v>
       </c>
       <c r="M36">
-        <v>0.0006903651914374</v>
+        <v>0.0004993164730006</v>
       </c>
       <c r="N36">
-        <v>0.885287849059733</v>
+        <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P36" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q36">
         <v>1871306</v>
@@ -3104,19 +3107,19 @@
         <v>5540203</v>
       </c>
       <c r="S36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3136,37 +3139,37 @@
         <v>39</v>
       </c>
       <c r="F37">
-        <v>0.927781260345973</v>
+        <v>0.931749466611588</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.931818181818182</v>
+        <v>0.914772727272727</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>4.075</v>
+        <v>4.015</v>
       </c>
       <c r="K37">
-        <v>-0.0693540439850976</v>
+        <v>-0.0647565911532077</v>
       </c>
       <c r="L37">
-        <v>-0.160237138098238</v>
+        <v>-0.150056216234311</v>
       </c>
       <c r="M37">
-        <v>0.0042363267648939</v>
+        <v>0.0042270450926051</v>
       </c>
       <c r="N37">
-        <v>-1.70193972969565</v>
+        <v>-1.61286652934515</v>
       </c>
       <c r="O37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q37">
         <v>1871306</v>
@@ -3175,19 +3178,19 @@
         <v>5540203</v>
       </c>
       <c r="S37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3195,49 +3198,49 @@
         <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
         <v>39</v>
       </c>
       <c r="F38">
-        <v>0.59675202974633</v>
+        <v>0.0007876122057739</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.0481927710843374</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0.542168674698795</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J38">
-        <v>0.404</v>
+        <v>0.5</v>
       </c>
       <c r="K38">
-        <v>0.0049038496693261</v>
+        <v>-0.0200206701193543</v>
       </c>
       <c r="L38">
-        <v>-0.0688136901205532</v>
+        <v>-0.0364130313227969</v>
       </c>
       <c r="M38">
-        <v>0.0425575005279966</v>
+        <v>-0.008321941216678</v>
       </c>
       <c r="N38">
-        <v>1.21382417557578</v>
+        <v>-4.00413402387086</v>
       </c>
       <c r="O38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q38">
         <v>1871306</v>
@@ -3246,16 +3249,19 @@
         <v>5540203</v>
       </c>
       <c r="S38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V38" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="W38" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3263,49 +3269,49 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
         <v>39</v>
       </c>
       <c r="F39">
-        <v>0.5</v>
+        <v>3.03531859646711E-08</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0.808080808080808</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>106.15</v>
+        <v>10.335</v>
       </c>
       <c r="K39">
-        <v>0.141659368560498</v>
+        <v>-0.0619745484400655</v>
       </c>
       <c r="L39">
-        <v>-9.479777264939299</v>
+        <v>-0.0813989732179258</v>
       </c>
       <c r="M39">
-        <v>2.69397916895722</v>
+        <v>-0.0429569760045189</v>
       </c>
       <c r="N39">
-        <v>0.133452066472442</v>
+        <v>-0.599656975714228</v>
       </c>
       <c r="O39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P39" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Q39">
         <v>1871306</v>
@@ -3314,16 +3320,19 @@
         <v>5540203</v>
       </c>
       <c r="S39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V39" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="W39" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3331,46 +3340,46 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F40">
-        <v>0.889664319040077</v>
+        <v>0.158676564488903</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>0.113744075829384</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0.18957345971564</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>5.26</v>
+        <v>0.014</v>
       </c>
       <c r="K40">
-        <v>0.546106844420792</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>-0.643742282398426</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>1.10832871093209</v>
+        <v>0.0001999178981937</v>
       </c>
       <c r="N40">
-        <v>10.3822593996348</v>
+        <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P40" t="s">
         <v>53</v>
@@ -3382,16 +3391,19 @@
         <v>5540203</v>
       </c>
       <c r="S40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V40" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="W40" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3399,49 +3411,49 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>39</v>
       </c>
       <c r="F41">
-        <v>0.237137175383665</v>
+        <v>0.951850652555686</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0.70952380952381</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.4595</v>
+        <v>219.5</v>
       </c>
       <c r="K41">
-        <v>-0.007955387848681701</v>
+        <v>-4.03297633474454</v>
       </c>
       <c r="L41">
-        <v>-0.0232158422028878</v>
+        <v>-8.344308109003549</v>
       </c>
       <c r="M41">
-        <v>0.0054906824405876</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>-1.73131400406566</v>
+        <v>-1.83734684954193</v>
       </c>
       <c r="O41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P41" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Q41">
         <v>1871306</v>
@@ -3450,16 +3462,19 @@
         <v>5540203</v>
       </c>
       <c r="S41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V41" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="W41" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3467,49 +3482,49 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F42">
-        <v>0.063424647007573</v>
+        <v>0.908180240321404</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>0.647058823529412</v>
       </c>
       <c r="H42">
-        <v>0.9</v>
+        <v>0.475490196078431</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J42">
-        <v>110</v>
+        <v>0.0056860724413774</v>
       </c>
       <c r="K42">
-        <v>-1.36414565826331</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>-2.77911669189976</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>-0.111879934929235</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>-1.240132416603</v>
+        <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P42" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="Q42">
         <v>1871306</v>
@@ -3518,16 +3533,19 @@
         <v>5540203</v>
       </c>
       <c r="S42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V42" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="W42" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3535,67 +3553,830 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
         <v>39</v>
       </c>
       <c r="F43">
-        <v>0.8144533152386511</v>
+        <v>0.998465119393949</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>0.0103626943005181</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0.906735751295337</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
+        <v>0.523</v>
+      </c>
+      <c r="K43">
+        <v>-0.006690093727223</v>
+      </c>
+      <c r="L43">
+        <v>-0.0104710826072666</v>
+      </c>
+      <c r="M43">
+        <v>-0.0030016274339185</v>
+      </c>
+      <c r="N43">
+        <v>-1.27917662088394</v>
+      </c>
+      <c r="O43" t="s">
+        <v>43</v>
+      </c>
+      <c r="P43" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q43">
+        <v>1871306</v>
+      </c>
+      <c r="R43">
+        <v>5540203</v>
+      </c>
+      <c r="S43" t="s">
+        <v>57</v>
+      </c>
+      <c r="T43" t="s">
+        <v>58</v>
+      </c>
+      <c r="U43" t="s">
+        <v>59</v>
+      </c>
+      <c r="V43" t="s">
+        <v>60</v>
+      </c>
+      <c r="W43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44">
+        <v>0.015086118385083</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.451923076923077</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="K44">
+        <v>-0.0076797783507341</v>
+      </c>
+      <c r="L44">
+        <v>-0.0134492415740105</v>
+      </c>
+      <c r="M44">
+        <v>-0.0019244221827994</v>
+      </c>
+      <c r="N44">
+        <v>-0.094695170785871</v>
+      </c>
+      <c r="O44" t="s">
+        <v>43</v>
+      </c>
+      <c r="P44" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q44">
+        <v>1871306</v>
+      </c>
+      <c r="R44">
+        <v>5540203</v>
+      </c>
+      <c r="S44" t="s">
+        <v>57</v>
+      </c>
+      <c r="T44" t="s">
+        <v>58</v>
+      </c>
+      <c r="U44" t="s">
+        <v>59</v>
+      </c>
+      <c r="V44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45">
+        <v>0.999638361130801</v>
+      </c>
+      <c r="G45">
+        <v>0.009478672985781899</v>
+      </c>
+      <c r="H45">
+        <v>0.890995260663507</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0.541</v>
+      </c>
+      <c r="K45">
+        <v>-0.0073649179767601</v>
+      </c>
+      <c r="L45">
+        <v>-0.0106812769139252</v>
+      </c>
+      <c r="M45">
+        <v>-0.0037405895797146</v>
+      </c>
+      <c r="N45">
+        <v>-1.36135267592608</v>
+      </c>
+      <c r="O45" t="s">
+        <v>43</v>
+      </c>
+      <c r="P45" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q45">
+        <v>1871306</v>
+      </c>
+      <c r="R45">
+        <v>5540203</v>
+      </c>
+      <c r="S45" t="s">
+        <v>57</v>
+      </c>
+      <c r="T45" t="s">
+        <v>58</v>
+      </c>
+      <c r="U45" t="s">
+        <v>59</v>
+      </c>
+      <c r="V45" t="s">
+        <v>60</v>
+      </c>
+      <c r="W45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46">
+        <v>0.9999408489974561</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0.566666666666667</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.795</v>
+      </c>
+      <c r="K46">
+        <v>-0.0100022820629849</v>
+      </c>
+      <c r="L46">
+        <v>-0.0153626819633256</v>
+      </c>
+      <c r="M46">
+        <v>-0.0053460070481072</v>
+      </c>
+      <c r="N46">
+        <v>-1.25814868716792</v>
+      </c>
+      <c r="O46" t="s">
+        <v>43</v>
+      </c>
+      <c r="P46" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q46">
+        <v>1871306</v>
+      </c>
+      <c r="R46">
+        <v>5540203</v>
+      </c>
+      <c r="S46" t="s">
+        <v>57</v>
+      </c>
+      <c r="T46" t="s">
+        <v>58</v>
+      </c>
+      <c r="U46" t="s">
+        <v>59</v>
+      </c>
+      <c r="V46" t="s">
+        <v>60</v>
+      </c>
+      <c r="W46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47">
+        <v>0.174773218298763</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0.414285714285714</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.0275</v>
+      </c>
+      <c r="K47">
+        <v>0.0001429549902152</v>
+      </c>
+      <c r="L47">
+        <v>-0.0001251538150117</v>
+      </c>
+      <c r="M47">
+        <v>0.0004545840522492</v>
+      </c>
+      <c r="N47">
+        <v>0.5198363280555069</v>
+      </c>
+      <c r="O47" t="s">
+        <v>43</v>
+      </c>
+      <c r="P47" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q47">
+        <v>1871306</v>
+      </c>
+      <c r="R47">
+        <v>5540203</v>
+      </c>
+      <c r="S47" t="s">
+        <v>57</v>
+      </c>
+      <c r="T47" t="s">
+        <v>58</v>
+      </c>
+      <c r="U47" t="s">
+        <v>59</v>
+      </c>
+      <c r="V47" t="s">
+        <v>60</v>
+      </c>
+      <c r="W47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48">
+        <v>0.9276256497124979</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0.900473933649289</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>3.96</v>
+      </c>
+      <c r="K48">
+        <v>-0.0456206088992975</v>
+      </c>
+      <c r="L48">
+        <v>-0.088313238171897</v>
+      </c>
+      <c r="M48">
+        <v>0.0043188518633259</v>
+      </c>
+      <c r="N48">
+        <v>-1.15203557826509</v>
+      </c>
+      <c r="O48" t="s">
+        <v>43</v>
+      </c>
+      <c r="P48" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q48">
+        <v>1871306</v>
+      </c>
+      <c r="R48">
+        <v>5540203</v>
+      </c>
+      <c r="S48" t="s">
+        <v>57</v>
+      </c>
+      <c r="T48" t="s">
+        <v>58</v>
+      </c>
+      <c r="U48" t="s">
+        <v>59</v>
+      </c>
+      <c r="V48" t="s">
+        <v>60</v>
+      </c>
+      <c r="W48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.37</v>
+      </c>
+      <c r="K49">
+        <v>-0.0130882996270797</v>
+      </c>
+      <c r="L49">
+        <v>-0.106894321122831</v>
+      </c>
+      <c r="M49">
+        <v>0.0300662630395163</v>
+      </c>
+      <c r="N49">
+        <v>-3.53737827758912</v>
+      </c>
+      <c r="O49" t="s">
+        <v>43</v>
+      </c>
+      <c r="P49" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q49">
+        <v>1871306</v>
+      </c>
+      <c r="R49">
+        <v>5540203</v>
+      </c>
+      <c r="S49" t="s">
+        <v>57</v>
+      </c>
+      <c r="T49" t="s">
+        <v>58</v>
+      </c>
+      <c r="U49" t="s">
+        <v>59</v>
+      </c>
+      <c r="V49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>106.15</v>
+      </c>
+      <c r="K50">
+        <v>0.98744331391302</v>
+      </c>
+      <c r="L50">
+        <v>-9.2990448578286</v>
+      </c>
+      <c r="M50">
+        <v>3.94742346387687</v>
+      </c>
+      <c r="N50">
+        <v>0.930233927379199</v>
+      </c>
+      <c r="O50" t="s">
+        <v>43</v>
+      </c>
+      <c r="P50" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q50">
+        <v>1871306</v>
+      </c>
+      <c r="R50">
+        <v>5540203</v>
+      </c>
+      <c r="S50" t="s">
+        <v>57</v>
+      </c>
+      <c r="T50" t="s">
+        <v>58</v>
+      </c>
+      <c r="U50" t="s">
+        <v>59</v>
+      </c>
+      <c r="V50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51">
+        <v>0.5</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>5.26</v>
+      </c>
+      <c r="K51">
+        <v>0.0223994133445362</v>
+      </c>
+      <c r="L51">
+        <v>-2.14215888255748</v>
+      </c>
+      <c r="M51">
+        <v>1.05758662052886</v>
+      </c>
+      <c r="N51">
+        <v>0.425844360162286</v>
+      </c>
+      <c r="O51" t="s">
+        <v>43</v>
+      </c>
+      <c r="P51" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q51">
+        <v>1871306</v>
+      </c>
+      <c r="R51">
+        <v>5540203</v>
+      </c>
+      <c r="S51" t="s">
+        <v>57</v>
+      </c>
+      <c r="T51" t="s">
+        <v>58</v>
+      </c>
+      <c r="U51" t="s">
+        <v>59</v>
+      </c>
+      <c r="V51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52">
+        <v>0.053702318165127</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.444</v>
+      </c>
+      <c r="K52">
+        <v>-0.0143903007518797</v>
+      </c>
+      <c r="L52">
+        <v>-0.0294773439122789</v>
+      </c>
+      <c r="M52">
+        <v>-0.0017313415497398</v>
+      </c>
+      <c r="N52">
+        <v>-3.24105872790083</v>
+      </c>
+      <c r="O52" t="s">
+        <v>43</v>
+      </c>
+      <c r="P52" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q52">
+        <v>1871306</v>
+      </c>
+      <c r="R52">
+        <v>5540203</v>
+      </c>
+      <c r="S52" t="s">
+        <v>57</v>
+      </c>
+      <c r="T52" t="s">
+        <v>58</v>
+      </c>
+      <c r="U52" t="s">
+        <v>59</v>
+      </c>
+      <c r="V52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53">
+        <v>0.161618161662385</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0.9</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>110</v>
+      </c>
+      <c r="K53">
+        <v>-0.856827067669173</v>
+      </c>
+      <c r="L53">
+        <v>-2.7072354558556</v>
+      </c>
+      <c r="M53">
+        <v>0.187209655579617</v>
+      </c>
+      <c r="N53">
+        <v>-0.778933697881066</v>
+      </c>
+      <c r="O53" t="s">
+        <v>43</v>
+      </c>
+      <c r="P53" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q53">
+        <v>1871306</v>
+      </c>
+      <c r="R53">
+        <v>5540203</v>
+      </c>
+      <c r="S53" t="s">
+        <v>57</v>
+      </c>
+      <c r="T53" t="s">
+        <v>58</v>
+      </c>
+      <c r="U53" t="s">
+        <v>59</v>
+      </c>
+      <c r="V53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54">
+        <v>0.360257393568128</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
         <v>5.39</v>
       </c>
-      <c r="K43">
-        <v>0.139713114754098</v>
-      </c>
-      <c r="L43">
-        <v>-0.187752231637316</v>
-      </c>
-      <c r="M43">
-        <v>0.266894363166118</v>
-      </c>
-      <c r="N43">
-        <v>2.59208005109645</v>
-      </c>
-      <c r="O43" t="s">
-        <v>42</v>
-      </c>
-      <c r="P43" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q43">
-        <v>1871306</v>
-      </c>
-      <c r="R43">
-        <v>5540203</v>
-      </c>
-      <c r="S43" t="s">
-        <v>56</v>
-      </c>
-      <c r="T43" t="s">
-        <v>57</v>
-      </c>
-      <c r="U43" t="s">
-        <v>58</v>
-      </c>
-      <c r="V43" t="s">
-        <v>59</v>
+      <c r="K54">
+        <v>-0.15319536423841</v>
+      </c>
+      <c r="L54">
+        <v>-0.338082726826398</v>
+      </c>
+      <c r="M54">
+        <v>0.22026652479669</v>
+      </c>
+      <c r="N54">
+        <v>-2.84221454987774</v>
+      </c>
+      <c r="O54" t="s">
+        <v>43</v>
+      </c>
+      <c r="P54" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q54">
+        <v>1871306</v>
+      </c>
+      <c r="R54">
+        <v>5540203</v>
+      </c>
+      <c r="S54" t="s">
+        <v>57</v>
+      </c>
+      <c r="T54" t="s">
+        <v>58</v>
+      </c>
+      <c r="U54" t="s">
+        <v>59</v>
+      </c>
+      <c r="V54" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
